--- a/data/raw/cz_drill.xlsx
+++ b/data/raw/cz_drill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files x86\A Study File\mycode\NOT_LSTM\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files x86\A Study File\mycode\NOT_LSTM\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519631E5-D416-44CD-AEB8-1348925CE8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EF5A28-F43C-478D-887C-80587C898E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
